--- a/fundraising.xlsx
+++ b/fundraising.xlsx
@@ -32,33 +32,9 @@
     <t>Transfers</t>
   </si>
   <si>
-    <t>Tom Steyer</t>
-  </si>
-  <si>
-    <t>Micheal  Bloomberg</t>
-  </si>
-  <si>
-    <t>Bernie Sander</t>
-  </si>
-  <si>
-    <t>Elizabeth Warren</t>
-  </si>
-  <si>
-    <t>Pete Buttigieg</t>
-  </si>
-  <si>
-    <t>Joe Biden</t>
-  </si>
-  <si>
-    <t>Amy Klobuchar</t>
-  </si>
-  <si>
     <t>Other</t>
   </si>
   <si>
-    <t>Tulsi Gabbard</t>
-  </si>
-  <si>
     <t>Bigdonors</t>
   </si>
   <si>
@@ -69,6 +45,30 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>T.Steyer</t>
+  </si>
+  <si>
+    <t>M.Bloomberg</t>
+  </si>
+  <si>
+    <t>B.Sander</t>
+  </si>
+  <si>
+    <t>E.Warren</t>
+  </si>
+  <si>
+    <t>P.Buttigieg</t>
+  </si>
+  <si>
+    <t>J.Biden</t>
+  </si>
+  <si>
+    <t>A.Klobuchar</t>
+  </si>
+  <si>
+    <t>T.Gabbard</t>
   </si>
 </sst>
 </file>
@@ -389,7 +389,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -407,27 +407,27 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F1" t="s">
         <v>1</v>
       </c>
       <c r="G1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B2">
         <v>202573805</v>
@@ -442,13 +442,13 @@
         <v>825147</v>
       </c>
       <c r="G2">
-        <f>SUM(B2:F2)</f>
+        <f t="shared" ref="G2:G7" si="0">SUM(B2:F2)</f>
         <v>206286969</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>200159259</v>
@@ -457,13 +457,13 @@
         <v>200360</v>
       </c>
       <c r="G3">
-        <f>SUM(B3:F3)</f>
+        <f t="shared" si="0"/>
         <v>200359619</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B4">
         <v>108912</v>
@@ -481,13 +481,13 @@
         <v>12198159</v>
       </c>
       <c r="G4">
-        <f>SUM(B4:F4)</f>
+        <f t="shared" si="0"/>
         <v>108585402</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C5">
         <v>27797100</v>
@@ -502,13 +502,13 @@
         <v>10413700</v>
       </c>
       <c r="G5">
-        <f>SUM(B5:F5)</f>
+        <f t="shared" si="0"/>
         <v>81997385</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C6">
         <v>42228200</v>
@@ -520,13 +520,13 @@
         <v>537450</v>
       </c>
       <c r="G6">
-        <f>SUM(B6:F6)</f>
+        <f t="shared" si="0"/>
         <v>76778550</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C7">
         <v>38698600</v>
@@ -541,13 +541,13 @@
         <v>122078</v>
       </c>
       <c r="G7">
-        <f>SUM(B7:F7)</f>
+        <f t="shared" si="0"/>
         <v>61099856</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C8">
         <v>14648900</v>
@@ -568,7 +568,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C9">
         <v>3890340</v>

--- a/fundraising.xlsx
+++ b/fundraising.xlsx
@@ -389,7 +389,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -430,20 +430,24 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>202573805</v>
+        <f>202573805/1000000</f>
+        <v>202.57380499999999</v>
       </c>
       <c r="C2">
-        <v>825148</v>
+        <f>825148/1000000</f>
+        <v>0.82514799999999999</v>
       </c>
       <c r="D2">
-        <v>2062869</v>
+        <f>2062869/1000000</f>
+        <v>2.0628690000000001</v>
       </c>
       <c r="E2">
-        <v>825147</v>
+        <f>825147/1000000</f>
+        <v>0.82514699999999996</v>
       </c>
       <c r="G2">
-        <f t="shared" ref="G2:G7" si="0">SUM(B2:F2)</f>
-        <v>206286969</v>
+        <f>SUM(B2:F2)</f>
+        <v>206.286969</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -451,14 +455,16 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>200159259</v>
+        <f>200159259/1000000</f>
+        <v>200.15925899999999</v>
       </c>
       <c r="E3">
-        <v>200360</v>
+        <f>200360/1000000</f>
+        <v>0.20036000000000001</v>
       </c>
       <c r="G3">
-        <f t="shared" si="0"/>
-        <v>200359619</v>
+        <f>SUM(B3:F3)</f>
+        <v>200.35961899999998</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -466,23 +472,28 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>108912</v>
+        <f>108912/1000000</f>
+        <v>0.10891199999999999</v>
       </c>
       <c r="C4">
-        <v>35287533</v>
+        <f>35287533/1000000</f>
+        <v>35.287533000000003</v>
       </c>
       <c r="D4">
-        <v>60664062</v>
+        <f>60664062/1000000</f>
+        <v>60.664062000000001</v>
       </c>
       <c r="E4">
-        <v>326736</v>
+        <f>326736/1000000</f>
+        <v>0.32673600000000003</v>
       </c>
       <c r="F4">
-        <v>12198159</v>
+        <f>12198159/1000000</f>
+        <v>12.198159</v>
       </c>
       <c r="G4">
-        <f t="shared" si="0"/>
-        <v>108585402</v>
+        <f>SUM(B4:F4)</f>
+        <v>108.585402</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -490,20 +501,24 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>27797100</v>
+        <f>27797100/1000000</f>
+        <v>27.7971</v>
       </c>
       <c r="D5">
-        <v>43294600</v>
+        <f>43294600/1000000</f>
+        <v>43.294600000000003</v>
       </c>
       <c r="E5">
-        <v>491985</v>
+        <f>491985/1000000</f>
+        <v>0.49198500000000001</v>
       </c>
       <c r="F5">
-        <v>10413700</v>
+        <f>10413700/1000000</f>
+        <v>10.4137</v>
       </c>
       <c r="G5">
-        <f t="shared" si="0"/>
-        <v>81997385</v>
+        <f>SUM(C5:F5)</f>
+        <v>81.997385000000008</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -511,17 +526,20 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>42228200</v>
+        <f>42228200/1000000</f>
+        <v>42.228200000000001</v>
       </c>
       <c r="D6">
-        <v>34012900</v>
+        <f>34012900/1000000</f>
+        <v>34.012900000000002</v>
       </c>
       <c r="E6">
-        <v>537450</v>
+        <f>537450/1000000</f>
+        <v>0.53744999999999998</v>
       </c>
       <c r="G6">
-        <f t="shared" si="0"/>
-        <v>76778550</v>
+        <f>SUM(C6:F6)</f>
+        <v>76.77855000000001</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -529,20 +547,24 @@
         <v>12</v>
       </c>
       <c r="C7">
-        <v>38698600</v>
+        <f>38698600/1000000</f>
+        <v>38.698599999999999</v>
       </c>
       <c r="D7">
-        <v>22157100</v>
+        <f>22157100/1000000</f>
+        <v>22.1571</v>
       </c>
       <c r="E7">
-        <v>122078</v>
+        <f>122078/1000000</f>
+        <v>0.12207800000000001</v>
       </c>
       <c r="F7">
-        <v>122078</v>
+        <f>122078/1000000</f>
+        <v>0.12207800000000001</v>
       </c>
       <c r="G7">
-        <f t="shared" si="0"/>
-        <v>61099856</v>
+        <f>SUM(C7:F7)</f>
+        <v>61.099856000000003</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -550,20 +572,24 @@
         <v>13</v>
       </c>
       <c r="C8">
-        <v>14648900</v>
+        <f>14648900/1000000</f>
+        <v>14.648899999999999</v>
       </c>
       <c r="D8">
-        <v>10682700</v>
+        <f>10682700/1000000</f>
+        <v>10.682700000000001</v>
       </c>
       <c r="E8">
-        <v>28950</v>
+        <f>28950/1000000</f>
+        <v>2.895E-2</v>
       </c>
       <c r="F8">
-        <v>3560910</v>
+        <f>3560910/1000000</f>
+        <v>3.5609099999999998</v>
       </c>
       <c r="G8">
         <f>SUM(C8:F8)</f>
-        <v>28921460</v>
+        <v>28.92146</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -571,20 +597,24 @@
         <v>14</v>
       </c>
       <c r="C9">
-        <v>3890340</v>
+        <f>3890340/1000000</f>
+        <v>3.8903400000000001</v>
       </c>
       <c r="D9">
-        <v>6144560</v>
+        <f>6144560/1000000</f>
+        <v>6.1445600000000002</v>
       </c>
       <c r="E9">
-        <v>84836</v>
+        <f>84836/1000000</f>
+        <v>8.4835999999999995E-2</v>
       </c>
       <c r="F9">
-        <v>1999710</v>
+        <f>1999710/1000000</f>
+        <v>1.9997100000000001</v>
       </c>
       <c r="G9">
-        <f>SUM(B9:F9)</f>
-        <v>12119446</v>
+        <f>SUM(C9:F9)</f>
+        <v>12.119446</v>
       </c>
     </row>
   </sheetData>
